--- a/f-file/krakenx-molecule-descriptor.xlsx
+++ b/f-file/krakenx-molecule-descriptor.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Repos/graduate-dissertation/f-file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AC424E89-AA25-E246-81DD-5E7F77D774AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1CBDE5-D4AF-2D40-A926-CAC491C32B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="760" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="1040" yWindow="7600" windowWidth="28300" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bmi_desc" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
   <si>
     <t>bmi</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>comp_MOPAC_POLARANISOTROPY</t>
-  </si>
-  <si>
-    <t>comp_MOPAC_POINTGROUP</t>
   </si>
   <si>
     <t>comp_MOPAC_VIB_ENTHALPY</t>
@@ -418,7 +415,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1383,16 +1380,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DU7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:DT7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
+      <selection activeCell="CM6" sqref="CM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="96" max="96" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:125">
+    <row r="1" spans="1:124">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -1762,11 +1762,8 @@
       <c r="DT1" t="s">
         <v>129</v>
       </c>
-      <c r="DU1" t="s">
-        <v>130</v>
-      </c>
     </row>
-    <row r="2" spans="1:125">
+    <row r="2" spans="1:124">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1974,176 +1971,173 @@
       <c r="BQ2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="BR2" t="s">
-        <v>1</v>
+      <c r="BR2">
+        <v>4178.7169999999996</v>
       </c>
       <c r="BS2">
-        <v>4178.7169999999996</v>
+        <v>28.28</v>
       </c>
       <c r="BT2">
-        <v>28.28</v>
+        <v>28.994</v>
       </c>
       <c r="BU2">
-        <v>28.994</v>
+        <v>888.28</v>
       </c>
       <c r="BV2">
-        <v>888.28</v>
+        <v>2.9809999999999999</v>
       </c>
       <c r="BW2">
-        <v>2.9809999999999999</v>
+        <v>29.125</v>
       </c>
       <c r="BX2">
-        <v>29.125</v>
+        <v>1480.4670000000001</v>
       </c>
       <c r="BY2">
-        <v>1480.4670000000001</v>
+        <v>4.968</v>
       </c>
       <c r="BZ2">
-        <v>4.968</v>
+        <v>40.360999999999997</v>
       </c>
       <c r="CA2">
-        <v>40.360999999999997</v>
+        <v>16.195</v>
       </c>
       <c r="CB2">
-        <v>16.195</v>
+        <v>98.983000000000004</v>
       </c>
       <c r="CC2">
-        <v>98.983000000000004</v>
+        <v>90.489000000000004</v>
       </c>
       <c r="CD2">
-        <v>90.489000000000004</v>
+        <v>4205.6989999999996</v>
       </c>
       <c r="CE2">
-        <v>4205.6989999999996</v>
+        <v>0.182</v>
       </c>
       <c r="CF2">
-        <v>0.182</v>
+        <v>-0.46400000000000002</v>
       </c>
       <c r="CG2">
-        <v>-0.46400000000000002</v>
+        <v>3.6739999999999999</v>
       </c>
       <c r="CH2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="CI2">
+        <v>-1.837</v>
+      </c>
+      <c r="CJ2">
+        <v>1.837</v>
+      </c>
+      <c r="CK2">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="CL2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="CM2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="CN2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="CO2">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="CP2">
+        <v>8.5960000000000001</v>
+      </c>
+      <c r="CQ2">
+        <v>4.5949999999999998</v>
+      </c>
+      <c r="CR2">
+        <v>2.8079999999999998</v>
+      </c>
+      <c r="CS2">
+        <v>-1.419</v>
+      </c>
+      <c r="CT2">
+        <v>1.837</v>
+      </c>
+      <c r="CU2">
+        <v>-0.41799999999999998</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>3.96</v>
+      </c>
+      <c r="DD2">
+        <v>17.806999999999999</v>
+      </c>
+      <c r="DE2">
+        <v>1.758</v>
+      </c>
+      <c r="DF2">
+        <v>19.402999999999999</v>
+      </c>
+      <c r="DG2">
+        <v>3.7120000000000002</v>
+      </c>
+      <c r="DH2">
+        <v>17.969000000000001</v>
+      </c>
+      <c r="DI2">
+        <v>7.6719999999999997</v>
+      </c>
+      <c r="DJ2">
+        <v>15.842000000000001</v>
+      </c>
+      <c r="DK2">
         <v>3.6739999999999999</v>
       </c>
-      <c r="CI2">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="CJ2">
-        <v>-1.837</v>
-      </c>
-      <c r="CK2">
-        <v>1.837</v>
-      </c>
-      <c r="CL2">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="CM2">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="CN2">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="CO2">
-        <v>4.7E-2</v>
-      </c>
-      <c r="CP2">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="CQ2">
-        <v>8.5960000000000001</v>
-      </c>
-      <c r="CR2">
-        <v>4.5949999999999998</v>
-      </c>
-      <c r="CS2">
-        <v>2.8079999999999998</v>
-      </c>
-      <c r="CT2">
-        <v>-1.419</v>
-      </c>
-      <c r="CU2">
-        <v>1.837</v>
-      </c>
-      <c r="CV2">
-        <v>-0.41799999999999998</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DB2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DD2">
-        <v>3.96</v>
-      </c>
-      <c r="DE2">
-        <v>17.806999999999999</v>
-      </c>
-      <c r="DF2">
-        <v>1.758</v>
-      </c>
-      <c r="DG2">
-        <v>19.402999999999999</v>
-      </c>
-      <c r="DH2">
-        <v>3.7120000000000002</v>
-      </c>
-      <c r="DI2">
-        <v>17.969000000000001</v>
-      </c>
-      <c r="DJ2">
-        <v>7.6719999999999997</v>
-      </c>
-      <c r="DK2">
-        <v>15.842000000000001</v>
-      </c>
       <c r="DL2">
-        <v>3.6739999999999999</v>
+        <v>21.382000000000001</v>
       </c>
       <c r="DM2">
-        <v>21.382000000000001</v>
+        <v>726.82600000000002</v>
       </c>
       <c r="DN2">
-        <v>726.82600000000002</v>
+        <v>5.4850000000000003</v>
       </c>
       <c r="DO2">
-        <v>5.4850000000000003</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="DP2">
-        <v>4.0000000000000001E-3</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="DQ2">
-        <v>0.97099999999999997</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="DR2">
-        <v>0.27400000000000002</v>
+        <v>2.0859999999999999</v>
       </c>
       <c r="DS2">
-        <v>2.0859999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="DT2">
-        <v>0.155</v>
-      </c>
-      <c r="DU2">
         <v>3.109</v>
       </c>
     </row>
-    <row r="3" spans="1:125">
+    <row r="3" spans="1:124">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2351,176 +2345,173 @@
       <c r="BQ3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BR3">
+        <v>4357.3339999999998</v>
+      </c>
+      <c r="BS3">
+        <v>27.335000000000001</v>
+      </c>
+      <c r="BT3">
+        <v>29.164999999999999</v>
+      </c>
+      <c r="BU3">
+        <v>888.28</v>
+      </c>
+      <c r="BV3">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="BW3">
+        <v>29.045000000000002</v>
+      </c>
+      <c r="BX3">
+        <v>1480.4670000000001</v>
+      </c>
+      <c r="BY3">
+        <v>4.968</v>
+      </c>
+      <c r="BZ3">
+        <v>40.433</v>
+      </c>
+      <c r="CA3">
+        <v>113.738</v>
+      </c>
+      <c r="CB3">
+        <v>109.25</v>
+      </c>
+      <c r="CC3">
+        <v>1943.2180000000001</v>
+      </c>
+      <c r="CD3">
+        <v>353987.71100000001</v>
+      </c>
+      <c r="CE3">
+        <v>0.24</v>
+      </c>
+      <c r="CF3">
+        <v>-0.33500000000000002</v>
+      </c>
+      <c r="CG3">
+        <v>2.3319999999999999</v>
+      </c>
+      <c r="CH3">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="CI3">
+        <v>-1.3280000000000001</v>
+      </c>
+      <c r="CJ3">
+        <v>1.004</v>
+      </c>
+      <c r="CK3">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="CL3">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="CM3">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="CN3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="CO3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="CP3">
+        <v>3.5310000000000001</v>
+      </c>
+      <c r="CQ3">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="CR3" t="s">
         <v>1</v>
       </c>
-      <c r="BS3">
-        <v>4357.3339999999998</v>
-      </c>
-      <c r="BT3">
-        <v>27.335000000000001</v>
-      </c>
-      <c r="BU3">
-        <v>29.164999999999999</v>
-      </c>
-      <c r="BV3">
-        <v>888.28</v>
-      </c>
-      <c r="BW3">
-        <v>2.9809999999999999</v>
-      </c>
-      <c r="BX3">
-        <v>29.045000000000002</v>
-      </c>
-      <c r="BY3">
-        <v>1480.4670000000001</v>
-      </c>
-      <c r="BZ3">
-        <v>4.968</v>
-      </c>
-      <c r="CA3">
-        <v>40.433</v>
-      </c>
-      <c r="CB3">
-        <v>113.738</v>
-      </c>
-      <c r="CC3">
-        <v>109.25</v>
-      </c>
-      <c r="CD3">
-        <v>1943.2180000000001</v>
-      </c>
-      <c r="CE3">
-        <v>353987.71100000001</v>
-      </c>
-      <c r="CF3">
+      <c r="CS3">
+        <v>-0.67200000000000004</v>
+      </c>
+      <c r="CT3">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="CU3">
+        <v>-0.30199999999999999</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
         <v>0.24</v>
       </c>
-      <c r="CG3">
-        <v>-0.33500000000000002</v>
-      </c>
-      <c r="CH3">
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="DD3">
+        <v>7.944</v>
+      </c>
+      <c r="DE3">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="DF3">
+        <v>9.8680000000000003</v>
+      </c>
+      <c r="DG3">
+        <v>2.407</v>
+      </c>
+      <c r="DH3">
+        <v>9.1180000000000003</v>
+      </c>
+      <c r="DI3">
+        <v>7.2889999999999997</v>
+      </c>
+      <c r="DJ3">
+        <v>7.0259999999999998</v>
+      </c>
+      <c r="DK3">
         <v>2.3319999999999999</v>
       </c>
-      <c r="CI3">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="CJ3">
-        <v>-1.3280000000000001</v>
-      </c>
-      <c r="CK3">
-        <v>1.004</v>
-      </c>
-      <c r="CL3">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="CM3">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="CN3">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="CO3">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="CP3">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="CQ3">
-        <v>3.5310000000000001</v>
-      </c>
-      <c r="CR3">
-        <v>1.9790000000000001</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CT3">
-        <v>-0.67200000000000004</v>
-      </c>
-      <c r="CU3">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="CV3">
-        <v>-0.30199999999999999</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0.24</v>
-      </c>
-      <c r="CY3">
-        <v>0</v>
-      </c>
-      <c r="CZ3">
-        <v>0</v>
-      </c>
-      <c r="DA3">
-        <v>0</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0</v>
-      </c>
-      <c r="DD3">
-        <v>4.8819999999999997</v>
-      </c>
-      <c r="DE3">
-        <v>7.944</v>
-      </c>
-      <c r="DF3">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="DG3">
-        <v>9.8680000000000003</v>
-      </c>
-      <c r="DH3">
-        <v>2.407</v>
-      </c>
-      <c r="DI3">
-        <v>9.1180000000000003</v>
-      </c>
-      <c r="DJ3">
-        <v>7.2889999999999997</v>
-      </c>
-      <c r="DK3">
-        <v>7.0259999999999998</v>
-      </c>
       <c r="DL3">
-        <v>2.3319999999999999</v>
+        <v>10.936</v>
       </c>
       <c r="DM3">
-        <v>10.936</v>
+        <v>155.09299999999999</v>
       </c>
       <c r="DN3">
-        <v>155.09299999999999</v>
+        <v>5.3470000000000004</v>
       </c>
       <c r="DO3">
-        <v>5.3470000000000004</v>
+        <v>2E-3</v>
       </c>
       <c r="DP3">
-        <v>2E-3</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="DQ3">
-        <v>0.91800000000000004</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="DR3">
-        <v>0.16300000000000001</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="DS3">
-        <v>1.9239999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="DT3">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="DU3">
         <v>2.42</v>
       </c>
     </row>
-    <row r="4" spans="1:125">
+    <row r="4" spans="1:124">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2728,176 +2719,173 @@
       <c r="BQ4">
         <v>1.9E-2</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BR4">
+        <v>2560.605</v>
+      </c>
+      <c r="BS4">
+        <v>18.606000000000002</v>
+      </c>
+      <c r="BT4">
+        <v>16.63</v>
+      </c>
+      <c r="BU4">
+        <v>888.28</v>
+      </c>
+      <c r="BV4">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="BW4">
+        <v>27.126000000000001</v>
+      </c>
+      <c r="BX4">
+        <v>1480.4670000000001</v>
+      </c>
+      <c r="BY4">
+        <v>4.968</v>
+      </c>
+      <c r="BZ4">
+        <v>39.597999999999999</v>
+      </c>
+      <c r="CA4">
+        <v>25.718</v>
+      </c>
+      <c r="CB4">
+        <v>74.757000000000005</v>
+      </c>
+      <c r="CC4">
+        <v>97.9</v>
+      </c>
+      <c r="CD4">
+        <v>3457.67</v>
+      </c>
+      <c r="CE4">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="CF4">
+        <v>-0.49399999999999999</v>
+      </c>
+      <c r="CG4">
+        <v>1.998</v>
+      </c>
+      <c r="CH4">
+        <v>0.182</v>
+      </c>
+      <c r="CI4">
+        <v>-1.32</v>
+      </c>
+      <c r="CJ4">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="CK4">
+        <v>0.52</v>
+      </c>
+      <c r="CL4">
+        <v>0.182</v>
+      </c>
+      <c r="CM4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="CN4">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="CO4">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="CP4">
+        <v>2.9529999999999998</v>
+      </c>
+      <c r="CQ4">
+        <v>0.36</v>
+      </c>
+      <c r="CR4" t="s">
         <v>1</v>
       </c>
-      <c r="BS4">
-        <v>2560.605</v>
-      </c>
-      <c r="BT4">
-        <v>18.606000000000002</v>
-      </c>
-      <c r="BU4">
-        <v>16.63</v>
-      </c>
-      <c r="BV4">
-        <v>888.28</v>
-      </c>
-      <c r="BW4">
-        <v>2.9809999999999999</v>
-      </c>
-      <c r="BX4">
-        <v>27.126000000000001</v>
-      </c>
-      <c r="BY4">
-        <v>1480.4670000000001</v>
-      </c>
-      <c r="BZ4">
-        <v>4.968</v>
-      </c>
-      <c r="CA4">
-        <v>39.597999999999999</v>
-      </c>
-      <c r="CB4">
-        <v>25.718</v>
-      </c>
-      <c r="CC4">
-        <v>74.757000000000005</v>
-      </c>
-      <c r="CD4">
-        <v>97.9</v>
-      </c>
-      <c r="CE4">
-        <v>3457.67</v>
-      </c>
-      <c r="CF4">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="CG4">
-        <v>-0.49399999999999999</v>
-      </c>
-      <c r="CH4">
+      <c r="CS4">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="CT4">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="CU4">
+        <v>-0.29599999999999999</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>-0.19700000000000001</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>2.7490000000000001</v>
+      </c>
+      <c r="DD4">
+        <v>8.8030000000000008</v>
+      </c>
+      <c r="DE4">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="DF4">
+        <v>9.9250000000000007</v>
+      </c>
+      <c r="DG4">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="DH4">
+        <v>8.9440000000000008</v>
+      </c>
+      <c r="DI4">
+        <v>5.2830000000000004</v>
+      </c>
+      <c r="DJ4">
+        <v>7.4889999999999999</v>
+      </c>
+      <c r="DK4">
         <v>1.998</v>
       </c>
-      <c r="CI4">
-        <v>0.182</v>
-      </c>
-      <c r="CJ4">
-        <v>-1.32</v>
-      </c>
-      <c r="CK4">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="CL4">
-        <v>0.52</v>
-      </c>
-      <c r="CM4">
-        <v>0.182</v>
-      </c>
-      <c r="CN4">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="CO4">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="CP4">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="CQ4">
-        <v>2.9529999999999998</v>
-      </c>
-      <c r="CR4">
-        <v>0.36</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CT4">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="CU4">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="CV4">
-        <v>-0.29599999999999999</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>-0.19700000000000001</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4">
-        <v>0</v>
-      </c>
-      <c r="DA4">
-        <v>0</v>
-      </c>
-      <c r="DB4">
-        <v>0</v>
-      </c>
-      <c r="DC4">
-        <v>0</v>
-      </c>
-      <c r="DD4">
-        <v>2.7490000000000001</v>
-      </c>
-      <c r="DE4">
-        <v>8.8030000000000008</v>
-      </c>
-      <c r="DF4">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="DG4">
-        <v>9.9250000000000007</v>
-      </c>
-      <c r="DH4">
-        <v>2.5329999999999999</v>
-      </c>
-      <c r="DI4">
-        <v>8.9440000000000008</v>
-      </c>
-      <c r="DJ4">
-        <v>5.2830000000000004</v>
-      </c>
-      <c r="DK4">
-        <v>7.4889999999999999</v>
-      </c>
       <c r="DL4">
-        <v>1.998</v>
+        <v>10.598000000000001</v>
       </c>
       <c r="DM4">
-        <v>10.598000000000001</v>
+        <v>153.577</v>
       </c>
       <c r="DN4">
-        <v>153.577</v>
+        <v>4.4580000000000002</v>
       </c>
       <c r="DO4">
-        <v>4.4580000000000002</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="DP4">
-        <v>7.0000000000000001E-3</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="DQ4">
-        <v>0.96699999999999997</v>
+        <v>0.26</v>
       </c>
       <c r="DR4">
-        <v>0.26</v>
+        <v>1.885</v>
       </c>
       <c r="DS4">
-        <v>1.885</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="DT4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="DU4">
         <v>2.3570000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:125" ht="15" customHeight="1">
+    <row r="5" spans="1:124" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3105,176 +3093,173 @@
       <c r="BQ5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="BR5" t="s">
-        <v>1</v>
+      <c r="BR5">
+        <v>2787.8969999999999</v>
       </c>
       <c r="BS5">
-        <v>2787.8969999999999</v>
+        <v>17.663</v>
       </c>
       <c r="BT5">
-        <v>17.663</v>
+        <v>18.552</v>
       </c>
       <c r="BU5">
-        <v>18.552</v>
+        <v>888.28</v>
       </c>
       <c r="BV5">
-        <v>888.28</v>
+        <v>2.9809999999999999</v>
       </c>
       <c r="BW5">
-        <v>2.9809999999999999</v>
+        <v>27.184999999999999</v>
       </c>
       <c r="BX5">
-        <v>27.184999999999999</v>
+        <v>1480.4670000000001</v>
       </c>
       <c r="BY5">
-        <v>1480.4670000000001</v>
+        <v>4.968</v>
       </c>
       <c r="BZ5">
-        <v>4.968</v>
+        <v>39.69</v>
       </c>
       <c r="CA5">
-        <v>39.69</v>
+        <v>123.056</v>
       </c>
       <c r="CB5">
-        <v>123.056</v>
+        <v>84.472999999999999</v>
       </c>
       <c r="CC5">
-        <v>84.472999999999999</v>
+        <v>1190.1420000000001</v>
       </c>
       <c r="CD5">
-        <v>1190.1420000000001</v>
+        <v>234244.587</v>
       </c>
       <c r="CE5">
-        <v>234244.587</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="CF5">
+        <v>-0.45500000000000002</v>
+      </c>
+      <c r="CG5">
+        <v>2.5409999999999999</v>
+      </c>
+      <c r="CH5">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="CI5">
+        <v>-1.27</v>
+      </c>
+      <c r="CJ5">
+        <v>1.27</v>
+      </c>
+      <c r="CK5">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="CL5">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="CM5">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="CN5">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="CO5">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="CP5">
+        <v>4.3769999999999998</v>
+      </c>
+      <c r="CQ5">
+        <v>3.198</v>
+      </c>
+      <c r="CR5">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="CS5">
+        <v>-0.75800000000000001</v>
+      </c>
+      <c r="CT5">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="CU5">
+        <v>-0.30099999999999999</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
         <v>0.23200000000000001</v>
       </c>
-      <c r="CG5">
-        <v>-0.45500000000000002</v>
-      </c>
-      <c r="CH5">
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>4.9180000000000001</v>
+      </c>
+      <c r="DD5">
+        <v>7.9269999999999996</v>
+      </c>
+      <c r="DE5">
+        <v>1.27</v>
+      </c>
+      <c r="DF5">
+        <v>9.8559999999999999</v>
+      </c>
+      <c r="DG5">
+        <v>2.419</v>
+      </c>
+      <c r="DH5">
+        <v>9.11</v>
+      </c>
+      <c r="DI5">
+        <v>7.3369999999999997</v>
+      </c>
+      <c r="DJ5">
+        <v>7.008</v>
+      </c>
+      <c r="DK5">
         <v>2.5409999999999999</v>
       </c>
-      <c r="CI5">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="CJ5">
-        <v>-1.27</v>
-      </c>
-      <c r="CK5">
-        <v>1.27</v>
-      </c>
-      <c r="CL5">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="CM5">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="CN5">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="CO5">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="CP5">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="CQ5">
-        <v>4.3769999999999998</v>
-      </c>
-      <c r="CR5">
-        <v>3.198</v>
-      </c>
-      <c r="CS5">
-        <v>1.5860000000000001</v>
-      </c>
-      <c r="CT5">
-        <v>-0.75800000000000001</v>
-      </c>
-      <c r="CU5">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="CV5">
-        <v>-0.30099999999999999</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="CZ5">
-        <v>0</v>
-      </c>
-      <c r="DA5">
-        <v>0</v>
-      </c>
-      <c r="DB5">
-        <v>0</v>
-      </c>
-      <c r="DC5">
-        <v>0</v>
-      </c>
-      <c r="DD5">
-        <v>4.9180000000000001</v>
-      </c>
-      <c r="DE5">
-        <v>7.9269999999999996</v>
-      </c>
-      <c r="DF5">
-        <v>1.27</v>
-      </c>
-      <c r="DG5">
-        <v>9.8559999999999999</v>
-      </c>
-      <c r="DH5">
-        <v>2.419</v>
-      </c>
-      <c r="DI5">
-        <v>9.11</v>
-      </c>
-      <c r="DJ5">
-        <v>7.3369999999999997</v>
-      </c>
-      <c r="DK5">
-        <v>7.008</v>
-      </c>
       <c r="DL5">
-        <v>2.5409999999999999</v>
+        <v>11.318</v>
       </c>
       <c r="DM5">
-        <v>11.318</v>
+        <v>156.07</v>
       </c>
       <c r="DN5">
-        <v>156.07</v>
+        <v>4.4329999999999998</v>
       </c>
       <c r="DO5">
-        <v>4.4329999999999998</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="DP5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="DQ5">
-        <v>0.96299999999999997</v>
+        <v>0.248</v>
       </c>
       <c r="DR5">
-        <v>0.248</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="DS5">
-        <v>2.1070000000000002</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="DT5">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="DU5">
         <v>2.411</v>
       </c>
     </row>
-    <row r="6" spans="1:125">
+    <row r="6" spans="1:124">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3482,176 +3467,173 @@
       <c r="BQ6">
         <v>0.03</v>
       </c>
-      <c r="BR6" t="s">
+      <c r="BR6">
+        <v>1811.5250000000001</v>
+      </c>
+      <c r="BS6">
+        <v>13.715999999999999</v>
+      </c>
+      <c r="BT6">
+        <v>12.680999999999999</v>
+      </c>
+      <c r="BU6">
+        <v>888.28</v>
+      </c>
+      <c r="BV6">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="BW6">
+        <v>25.818000000000001</v>
+      </c>
+      <c r="BX6">
+        <v>1480.4670000000001</v>
+      </c>
+      <c r="BY6">
+        <v>4.968</v>
+      </c>
+      <c r="BZ6">
+        <v>39.128</v>
+      </c>
+      <c r="CA6">
+        <v>32.838000000000001</v>
+      </c>
+      <c r="CB6">
+        <v>62.293999999999997</v>
+      </c>
+      <c r="CC6">
+        <v>97.88</v>
+      </c>
+      <c r="CD6">
+        <v>2571.2820000000002</v>
+      </c>
+      <c r="CE6">
+        <v>0.183</v>
+      </c>
+      <c r="CF6">
+        <v>-0.32100000000000001</v>
+      </c>
+      <c r="CG6">
+        <v>1.905</v>
+      </c>
+      <c r="CH6">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="CI6">
+        <v>-1.036</v>
+      </c>
+      <c r="CJ6">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="CK6">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="CL6">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="CM6">
+        <v>0.157</v>
+      </c>
+      <c r="CN6">
+        <v>0.06</v>
+      </c>
+      <c r="CO6">
+        <v>0.503</v>
+      </c>
+      <c r="CP6">
+        <v>3.327</v>
+      </c>
+      <c r="CQ6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="CR6" t="s">
         <v>1</v>
       </c>
-      <c r="BS6">
-        <v>1811.5250000000001</v>
-      </c>
-      <c r="BT6">
-        <v>13.715999999999999</v>
-      </c>
-      <c r="BU6">
-        <v>12.680999999999999</v>
-      </c>
-      <c r="BV6">
-        <v>888.28</v>
-      </c>
-      <c r="BW6">
-        <v>2.9809999999999999</v>
-      </c>
-      <c r="BX6">
-        <v>25.818000000000001</v>
-      </c>
-      <c r="BY6">
-        <v>1480.4670000000001</v>
-      </c>
-      <c r="BZ6">
-        <v>4.968</v>
-      </c>
-      <c r="CA6">
-        <v>39.128</v>
-      </c>
-      <c r="CB6">
-        <v>32.838000000000001</v>
-      </c>
-      <c r="CC6">
-        <v>62.293999999999997</v>
-      </c>
-      <c r="CD6">
-        <v>97.88</v>
-      </c>
-      <c r="CE6">
-        <v>2571.2820000000002</v>
-      </c>
-      <c r="CF6">
-        <v>0.183</v>
-      </c>
-      <c r="CG6">
-        <v>-0.32100000000000001</v>
-      </c>
-      <c r="CH6">
+      <c r="CS6">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="CT6">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="CU6">
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>-0.21</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="DD6">
+        <v>8.8190000000000008</v>
+      </c>
+      <c r="DE6">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="DF6">
+        <v>9.9269999999999996</v>
+      </c>
+      <c r="DG6">
+        <v>2.5379999999999998</v>
+      </c>
+      <c r="DH6">
+        <v>8.94</v>
+      </c>
+      <c r="DI6">
+        <v>5.2590000000000003</v>
+      </c>
+      <c r="DJ6">
+        <v>7.5</v>
+      </c>
+      <c r="DK6">
         <v>1.905</v>
       </c>
-      <c r="CI6">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="CJ6">
-        <v>-1.036</v>
-      </c>
-      <c r="CK6">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="CL6">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="CM6">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="CN6">
-        <v>0.157</v>
-      </c>
-      <c r="CO6">
-        <v>0.06</v>
-      </c>
-      <c r="CP6">
-        <v>0.503</v>
-      </c>
-      <c r="CQ6">
-        <v>3.327</v>
-      </c>
-      <c r="CR6">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>1</v>
-      </c>
-      <c r="CT6">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="CU6">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="CV6">
-        <v>-0.29399999999999998</v>
-      </c>
-      <c r="CW6">
-        <v>0</v>
-      </c>
-      <c r="CX6">
-        <v>-0.21</v>
-      </c>
-      <c r="CY6">
-        <v>0</v>
-      </c>
-      <c r="CZ6">
-        <v>0</v>
-      </c>
-      <c r="DA6">
-        <v>0</v>
-      </c>
-      <c r="DB6">
-        <v>0</v>
-      </c>
-      <c r="DC6">
-        <v>0</v>
-      </c>
-      <c r="DD6">
-        <v>2.7210000000000001</v>
-      </c>
-      <c r="DE6">
-        <v>8.8190000000000008</v>
-      </c>
-      <c r="DF6">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="DG6">
-        <v>9.9269999999999996</v>
-      </c>
-      <c r="DH6">
-        <v>2.5379999999999998</v>
-      </c>
-      <c r="DI6">
-        <v>8.94</v>
-      </c>
-      <c r="DJ6">
-        <v>5.2590000000000003</v>
-      </c>
-      <c r="DK6">
-        <v>7.5</v>
-      </c>
       <c r="DL6">
-        <v>1.905</v>
+        <v>11.028</v>
       </c>
       <c r="DM6">
-        <v>11.028</v>
+        <v>150.58799999999999</v>
       </c>
       <c r="DN6">
-        <v>150.58799999999999</v>
+        <v>3.8740000000000001</v>
       </c>
       <c r="DO6">
-        <v>3.8740000000000001</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="DP6">
-        <v>8.0000000000000002E-3</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="DQ6">
-        <v>0.95699999999999996</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="DR6">
-        <v>0.23899999999999999</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="DS6">
-        <v>1.8959999999999999</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="DT6">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="DU6">
         <v>1.94</v>
       </c>
     </row>
-    <row r="7" spans="1:125">
+    <row r="7" spans="1:124">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3859,38 +3841,38 @@
       <c r="BQ7">
         <v>0</v>
       </c>
-      <c r="BR7" t="s">
-        <v>1</v>
+      <c r="BR7">
+        <v>2663.5120000000002</v>
       </c>
       <c r="BS7">
-        <v>2663.5120000000002</v>
+        <v>15.486000000000001</v>
       </c>
       <c r="BT7">
-        <v>15.486000000000001</v>
+        <v>17.585000000000001</v>
       </c>
       <c r="BU7">
-        <v>17.585000000000001</v>
+        <v>888.28</v>
       </c>
       <c r="BV7">
-        <v>888.28</v>
+        <v>2.9809999999999999</v>
       </c>
       <c r="BW7">
-        <v>2.9809999999999999</v>
+        <v>27.045999999999999</v>
       </c>
       <c r="BX7">
-        <v>27.045999999999999</v>
+        <v>1480.4670000000001</v>
       </c>
       <c r="BY7">
-        <v>1480.4670000000001</v>
+        <v>4.968</v>
       </c>
       <c r="BZ7">
-        <v>4.968</v>
+        <v>39.637999999999998</v>
       </c>
       <c r="CA7">
-        <v>39.637999999999998</v>
+        <v>55.119</v>
       </c>
       <c r="CB7">
-        <v>55.119</v>
+        <v>0</v>
       </c>
       <c r="CC7">
         <v>0</v>
@@ -3899,132 +3881,129 @@
         <v>0</v>
       </c>
       <c r="CE7">
-        <v>0</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="CF7">
-        <v>0.24199999999999999</v>
+        <v>-0.503</v>
       </c>
       <c r="CG7">
-        <v>-0.503</v>
+        <v>1.621</v>
       </c>
       <c r="CH7">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="CI7">
+        <v>-0.81100000000000005</v>
+      </c>
+      <c r="CJ7">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="CK7">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="CL7">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="CM7">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="CN7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="CO7">
+        <v>0.745</v>
+      </c>
+      <c r="CP7">
+        <v>2.54</v>
+      </c>
+      <c r="CQ7">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="CR7">
+        <v>1.784</v>
+      </c>
+      <c r="CS7">
+        <v>-0.46100000000000002</v>
+      </c>
+      <c r="CT7">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="CU7">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>4.1950000000000003</v>
+      </c>
+      <c r="DD7">
+        <v>5.3609999999999998</v>
+      </c>
+      <c r="DE7">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="DF7">
+        <v>7.19</v>
+      </c>
+      <c r="DG7">
+        <v>2.036</v>
+      </c>
+      <c r="DH7">
+        <v>6.4260000000000002</v>
+      </c>
+      <c r="DI7">
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="DJ7">
+        <v>4.6459999999999999</v>
+      </c>
+      <c r="DK7">
         <v>1.621</v>
       </c>
-      <c r="CI7">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="CJ7">
-        <v>-0.81100000000000005</v>
-      </c>
-      <c r="CK7">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="CL7">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="CM7">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="CN7">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="CO7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="CP7">
-        <v>0.745</v>
-      </c>
-      <c r="CQ7">
-        <v>2.54</v>
-      </c>
-      <c r="CR7">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="CS7">
-        <v>1.784</v>
-      </c>
-      <c r="CT7">
-        <v>-0.46100000000000002</v>
-      </c>
-      <c r="CU7">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="CV7">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="CW7">
-        <v>0</v>
-      </c>
-      <c r="CX7">
-        <v>-0.23799999999999999</v>
-      </c>
-      <c r="CY7">
-        <v>0</v>
-      </c>
-      <c r="CZ7">
-        <v>0</v>
-      </c>
-      <c r="DA7">
-        <v>0</v>
-      </c>
-      <c r="DB7">
-        <v>0</v>
-      </c>
-      <c r="DC7">
-        <v>0</v>
-      </c>
-      <c r="DD7">
-        <v>4.1950000000000003</v>
-      </c>
-      <c r="DE7">
-        <v>5.3609999999999998</v>
-      </c>
-      <c r="DF7">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="DG7">
-        <v>7.19</v>
-      </c>
-      <c r="DH7">
-        <v>2.036</v>
-      </c>
-      <c r="DI7">
-        <v>6.4260000000000002</v>
-      </c>
-      <c r="DJ7">
-        <v>6.2309999999999999</v>
-      </c>
-      <c r="DK7">
-        <v>4.6459999999999999</v>
-      </c>
       <c r="DL7">
-        <v>1.621</v>
+        <v>8.218</v>
       </c>
       <c r="DM7">
-        <v>8.218</v>
+        <v>76.701999999999998</v>
       </c>
       <c r="DN7">
-        <v>76.701999999999998</v>
+        <v>4.3689999999999998</v>
       </c>
       <c r="DO7">
-        <v>4.3689999999999998</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="DP7">
-        <v>7.0000000000000001E-3</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="DQ7">
-        <v>0.97799999999999998</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="DR7">
-        <v>0.30199999999999999</v>
+        <v>1.83</v>
       </c>
       <c r="DS7">
-        <v>1.83</v>
-      </c>
-      <c r="DT7">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="DU7" t="s">
+      <c r="DT7" t="s">
         <v>1</v>
       </c>
     </row>
